--- a/updated_elo_scores.xlsx
+++ b/updated_elo_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,57 +452,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1837</v>
+        <v>1874.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1758.8</v>
+        <v>1865.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Paulo</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1754.1</v>
+        <v>1760.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Saravanan</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1726.7</v>
+        <v>1723.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saravanan</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1691.9</v>
+        <v>1721.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Paulo</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1688.8</v>
+        <v>1701.4</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1679.8</v>
+        <v>1691.1</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1666.3</v>
+        <v>1677.1</v>
       </c>
     </row>
     <row r="10">
@@ -532,107 +532,107 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1621.3</v>
+        <v>1675.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sadeed</t>
+          <t>Ayman</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1609.5</v>
+        <v>1653.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ayman</t>
+          <t>Xi</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1598.8</v>
+        <v>1637.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sadeed</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1593.3</v>
+        <v>1631.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1585.7</v>
+        <v>1630.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Xi</t>
+          <t>Eugene</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1564.3</v>
+        <v>1611.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Eugene</t>
+          <t>Charlie</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1544</v>
+        <v>1605.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Yevhen</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1534.7</v>
+        <v>1555.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fernando</t>
+          <t>Karla</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1520.2</v>
+        <v>1525.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Fernando</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1514.5</v>
+        <v>1521.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1503.1</v>
+        <v>1521.2</v>
       </c>
     </row>
     <row r="21">
@@ -642,257 +642,187 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1481.8</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Karla</t>
+          <t>Jofrey</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1475</v>
+        <v>1515.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jofrey</t>
+          <t>Yevhen</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1465</v>
+        <v>1513.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Abdurauf</t>
+          <t>Madi</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1462.3</v>
+        <v>1499.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Madi</t>
+          <t>Octavio</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1456.5</v>
+        <v>1465.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jean-Pierre</t>
+          <t>Abdurauf</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1453.7</v>
+        <v>1449.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Amanat</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1434.9</v>
+        <v>1430.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Amanat</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1430.2</v>
+        <v>1410.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Gergo</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1416.8</v>
+        <v>1405.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Faruk</t>
+          <t>Rawan</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1404.6</v>
+        <v>1400.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kirill</t>
+          <t>Faruk</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1401</v>
+        <v>1381.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Abdulmajeed</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1399.9</v>
+        <v>1375.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Mustafa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1397.6</v>
+        <v>1372.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Octavio</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1383.2</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nic</t>
+          <t>Haytham</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1379.2</v>
+        <v>1247.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Huawen</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1374.9</v>
+        <v>1231.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mustafa</t>
+          <t>Xingzhu</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1355.8</v>
+        <v>1208.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Abdulmajeed</t>
+          <t>Hashim</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1346.3</v>
+        <v>1206.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Rawan</t>
+          <t>Juris</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1345.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1303.7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Lucas</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1284.6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Xingzhu</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Huawen</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1210.2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Hashim</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1209.6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Juris</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Haytham</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1164.4</v>
+        <v>1198.7</v>
       </c>
     </row>
   </sheetData>

--- a/updated_elo_scores.xlsx
+++ b/updated_elo_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,41 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Nakul</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1874.7</v>
+        <v>1919.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1865.5</v>
+        <v>1850.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Alexis</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1760.2</v>
+        <v>1761.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saravanan</t>
+          <t>Sean B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1723.1</v>
+        <v>1760.4</v>
       </c>
     </row>
     <row r="6">
@@ -492,27 +492,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1721.3</v>
+        <v>1744.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Paulo</t>
+          <t>Saravanan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1701.4</v>
+        <v>1731.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alexis</t>
+          <t>Paulo</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1691.1</v>
+        <v>1712.3</v>
       </c>
     </row>
     <row r="9">
@@ -522,117 +522,117 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1677.1</v>
+        <v>1685.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zhengnan</t>
+          <t>Xi</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1675.4</v>
+        <v>1684.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ayman</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1653.9</v>
+        <v>1667.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Xi</t>
+          <t>Ayman</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1637.8</v>
+        <v>1661.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sadeed</t>
+          <t>Charlie S</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1631.4</v>
+        <v>1646.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1630.9</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Eugene</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1611.8</v>
+        <v>1618.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>Zhengnan</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1605.9</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Eugene</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1555.8</v>
+        <v>1597.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Karla</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1525.8</v>
+        <v>1568.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fernando</t>
+          <t>Karla</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1521.7</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Sean H</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1521.2</v>
+        <v>1552.6</v>
       </c>
     </row>
     <row r="21">
@@ -642,17 +642,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1516</v>
+        <v>1533.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jofrey</t>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1515.8</v>
+        <v>1519.2</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1513.7</v>
+        <v>1513.2</v>
       </c>
     </row>
     <row r="24">
@@ -672,157 +672,187 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1499.4</v>
+        <v>1512.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Octavio</t>
+          <t>Fernando</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1465.2</v>
+        <v>1511.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Abdurauf</t>
+          <t>Sadeed</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1449.6</v>
+        <v>1502.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Amanat</t>
+          <t>Octavio</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1430.1</v>
+        <v>1495.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Abdurauf</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1410.6</v>
+        <v>1450.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Jofrey</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1405.2</v>
+        <v>1442.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rawan</t>
+          <t>Amanat</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1400.8</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Faruk</t>
+          <t>Rawan</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1381.6</v>
+        <v>1425.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Abdulmajeed</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1375.7</v>
+        <v>1417.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mustafa</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1372.3</v>
+        <v>1407.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Faruk</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1325</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Haytham</t>
+          <t>Mustafa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1247.5</v>
+        <v>1392.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Huawen</t>
+          <t>Abdulmajeed</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1231.4</v>
+        <v>1370.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Xingzhu</t>
+          <t>Haytham</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1208.4</v>
+        <v>1359.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hashim</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1206.3</v>
+        <v>1335.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Huawen</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1222.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Xingzhu</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1214.9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Juris</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>1198.7</v>
+      <c r="B41" t="n">
+        <v>1211.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hashim</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1210.7</v>
       </c>
     </row>
   </sheetData>
